--- a/output/aggregate_tables/weight_percentages_top10species.xlsx
+++ b/output/aggregate_tables/weight_percentages_top10species.xlsx
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6841026389978051</v>
+        <v>0.684102635418281</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.491549571002195</v>
+        <v>0.4612462745817191</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58.18920197477492</v>
+        <v>59.72875422025597</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>41.81079802522508</v>
+        <v>40.27124577974401</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.73967789643475</v>
+        <v>11.73967789285522</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.161226344711375</v>
+        <v>3.130923048290898</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>7.404190264543118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.63227149044525</v>
+        <v>52.70387400918387</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>14.17266510081389</v>
+        <v>14.05590301331859</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.19506340874086</v>
+        <v>33.24022297749755</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/weight_percentages_top10species.xlsx
+++ b/output/aggregate_tables/weight_percentages_top10species.xlsx
@@ -817,16 +817,16 @@
         <v>0.8088917533333332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1551566613034826</v>
+        <v>0.1551328695686274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43.57772686814955</v>
+        <v>43.57833367219197</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.34151391957677</v>
+        <v>47.34217313298888</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.080759212273685</v>
+        <v>9.079493194819165</v>
       </c>
     </row>
     <row r="13">
@@ -873,16 +873,16 @@
         <v>3.130923048290898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.404190264543118</v>
+        <v>7.404166472808262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.70387400918387</v>
+        <v>52.70393030232366</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>14.05590301331859</v>
+        <v>14.05591802646379</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.24022297749755</v>
+        <v>33.24015167121253</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/weight_percentages_top10species.xlsx
+++ b/output/aggregate_tables/weight_percentages_top10species.xlsx
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>0.07948091487219754</v>
+        <v>0.08410143186292865</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1437070899175314</v>
+        <v>0.131298016538138</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.147775731119362</v>
+        <v>1.147476201598933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.797448378128942</v>
+        <v>6.170880803610266</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>10.4821948351711</v>
+        <v>9.633895545652898</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>83.72035678669997</v>
+        <v>84.19522365073682</v>
       </c>
     </row>
     <row r="11">
@@ -867,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.73967789285522</v>
+        <v>11.74429840984595</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.130923048290898</v>
+        <v>3.118513974911505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.404166472808262</v>
+        <v>7.403866943287833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.70393030232366</v>
+        <v>52.74382514259229</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>14.05591802646379</v>
+        <v>14.00529431877918</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.24015167121253</v>
+        <v>33.25088053862852</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/weight_percentages_top10species.xlsx
+++ b/output/aggregate_tables/weight_percentages_top10species.xlsx
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>0.08410143186292865</v>
+        <v>0.08089395272715416</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.131298016538138</v>
+        <v>0.1813191476552579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.147476201598933</v>
+        <v>1.148374719617588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.170880803610266</v>
+        <v>5.734768979300712</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>9.633895545652898</v>
+        <v>12.85415520284713</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>84.19522365073682</v>
+        <v>81.41107581785216</v>
       </c>
     </row>
     <row r="11">
@@ -783,19 +783,19 @@
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>0.02853830909090908</v>
+        <v>0.01426915454545454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5002300247958893</v>
+        <v>0.5144991793413438</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0.9662673779232015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.908871397885105</v>
+        <v>0.9544356989425526</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>33.45940306604945</v>
+        <v>34.413838764992</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>64.63172553606546</v>
@@ -817,16 +817,16 @@
         <v>0.8088917533333332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1551328695686274</v>
+        <v>0.1535388233333333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43.57833367219197</v>
+        <v>43.61902807502376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.34217313298888</v>
+        <v>47.38638229157898</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.079493194819165</v>
+        <v>8.994589633397268</v>
       </c>
     </row>
     <row r="13">
@@ -867,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.74429840984595</v>
+        <v>11.72682177616472</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.118513974911505</v>
+        <v>3.182804260574079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.403866943287833</v>
+        <v>7.403171415071195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.74382514259229</v>
+        <v>52.55648379138337</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>14.00529431877918</v>
+        <v>14.26447879271136</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.25088053862852</v>
+        <v>33.17903741590526</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/weight_percentages_top10species.xlsx
+++ b/output/aggregate_tables/weight_percentages_top10species.xlsx
@@ -754,23 +754,23 @@
           <t>Sardina pilchardus</t>
         </is>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>0.08089395272715416</v>
+      <c r="C10" s="5" t="n">
+        <v>0.1068001133872182</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1813191476552579</v>
+        <v>0.1559922887438925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.148374719617588</v>
+        <v>1.147795417868889</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.734768979300712</v>
+        <v>7.571319691901084</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>12.85415520284713</v>
+        <v>11.05867259961826</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>81.41107581785216</v>
+        <v>81.37000770848066</v>
       </c>
     </row>
     <row r="11">
@@ -789,16 +789,16 @@
         <v>0.5144991793413438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9662673779232015</v>
+        <v>0.8876011036065309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9544356989425526</v>
+        <v>1.007445809527484</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>34.413838764992</v>
+        <v>36.32521047982348</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>64.63172553606546</v>
+        <v>62.66734371064903</v>
       </c>
     </row>
     <row r="12">
@@ -817,16 +817,16 @@
         <v>0.8088917533333332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1535388233333333</v>
+        <v>0.1538502782199367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43.61902807502376</v>
+        <v>43.61107097079072</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.38638229157898</v>
+        <v>47.37773793612768</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.994589633397268</v>
+        <v>9.011191093081603</v>
       </c>
     </row>
     <row r="13">
@@ -867,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.72682177616472</v>
+        <v>11.75272793682479</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.182804260574079</v>
+        <v>3.157477401662714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.403171415071195</v>
+        <v>7.324237293892427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.55648379138337</v>
+        <v>52.85820801151695</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>14.26447879271136</v>
+        <v>14.20083900400765</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.17903741590526</v>
+        <v>32.9409529844754</v>
       </c>
     </row>
   </sheetData>
